--- a/output/phpmyadmin/phpmyadmin-vuln-fiaf.xlsx
+++ b/output/phpmyadmin/phpmyadmin-vuln-fiaf.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="phpmyadmin" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="phpmyadmin1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="phpmyadmin2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>php:S2068</t>
+          <t>V-php:S2068</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -480,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>javascript:S2819</t>
+          <t>V-javascript:S2819</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -502,241 +500,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>php:S2964</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.169925001442313</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>vuln_rule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michal_Cihar  </t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deven_Bansod  </t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spun_Nakandala  </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>php:S2068</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>javascript:S2819</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.584962500721156</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>php:S2964</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.169925001442313</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>vuln_rule</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mauricio_Meneghini_Fauth  </t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michal_Cihar  </t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deven_Bansod  </t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osaid_Rehman_Nasir  </t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spun_Nakandala  </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>php:S2068</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>javascript:S2819</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.584962500721156</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>php:S2964</t>
+          <t>V-php:S2964</t>
         </is>
       </c>
       <c r="B4" t="n">
